--- a/Documentatie/Kerntaak 2/14. Agenda - notulen/Agenda 04.xlsx
+++ b/Documentatie/Kerntaak 2/14. Agenda - notulen/Agenda 04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
@@ -233,15 +233,9 @@
     <t>De applicatie is ver af en moet volgens de planning aan het einde van deze week af zijn. Er moeten nog een aantal dingen in gebouwd worden en bij sommige dingen moet de de puntjes nog op de i worden gezet.</t>
   </si>
   <si>
-    <t>Koen heeft met zijn vader (de opdrachtgever) afgesproken dat we op maandag 6-6-2016 een bespreking hebben over de applicatie en om de acceptatietest uit te voeren.</t>
-  </si>
-  <si>
     <t>De laatste dingen aan de applicatie moeten nog ingebouwd worden, puntjes op de i zetten. En volgende week moet de documentatie afgerond worden.</t>
   </si>
   <si>
-    <t>De volgende vergadering zal volgende week maandag (6-6-2016) plaatsvinden.</t>
-  </si>
-  <si>
     <t>Geen mededelingen.</t>
   </si>
   <si>
@@ -276,6 +270,12 @@
   </si>
   <si>
     <t>Mike Oerlemans, Menno van der Krift</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Menno heeft met zijn vader (de opdrachtgever) afgesproken dat we op maandag 6-6-2016 een bespreking hebben over de applicatie en om de acceptatietest uit te voeren.</t>
   </si>
 </sst>
 </file>
@@ -781,6 +781,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -813,9 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1165,8 +1165,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,51 +1186,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="91"/>
+      <c r="B4" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
+      <c r="B5" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1263,7 +1263,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="13">
         <v>5</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13">
         <v>3</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -1448,7 +1448,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1701,8 +1701,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="71"/>
@@ -1788,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="73"/>
       <c r="D4" s="71"/>
@@ -1882,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="67"/>
@@ -1905,7 +1905,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -1951,7 +1951,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C11" s="56"/>
       <c r="D11" s="58"/>
@@ -1962,7 +1962,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="58"/>
@@ -1980,13 +1980,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="101" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="79">
         <v>42527</v>
@@ -1997,7 +1997,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="52"/>
